--- a/data/trans_camb/P16A02-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A02-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>5.427582054643357</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14.4250777823905</v>
+        <v>14.42507778239051</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>8.906068103303284</v>
@@ -664,7 +664,7 @@
         <v>7.908385829395826</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>22.17066749093274</v>
+        <v>22.17066749093273</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.056027780322861</v>
+        <v>2.274683816223539</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.907766385977824</v>
+        <v>1.700792065270275</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9.938329992558323</v>
+        <v>9.970362731499641</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.924308236183694</v>
+        <v>5.1211941612848</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>5.590284918144512</v>
+        <v>5.540116063261206</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>23.21116985917676</v>
+        <v>23.55738018727736</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>5.320703915087554</v>
+        <v>5.292512087184606</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>4.995607525348692</v>
+        <v>5.013406803353675</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>19.34431111084179</v>
+        <v>19.14998978417267</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.663232948921879</v>
+        <v>9.94931639911419</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.58620633963764</v>
+        <v>9.489151269366378</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18.6844114622522</v>
+        <v>18.67437198257736</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.75475446712221</v>
+        <v>12.83142267099658</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>13.78254709382543</v>
+        <v>13.56927679139865</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>30.69265446497585</v>
+        <v>31.02137490908381</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>10.70201820536683</v>
+        <v>10.70015562781132</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>10.98144327546202</v>
+        <v>10.74288111123115</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>24.90829353497275</v>
+        <v>24.97940133464624</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.2916624091858432</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.7751615537725205</v>
+        <v>0.7751615537725208</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.2783931326009438</v>
@@ -769,7 +769,7 @@
         <v>0.3029103672499615</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.8491903628288554</v>
+        <v>0.849190362828855</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1056006885008843</v>
+        <v>0.1139666954681843</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.09098364604162824</v>
+        <v>0.08140127881711956</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.4966021156263108</v>
+        <v>0.5087481654955709</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1435946098797656</v>
+        <v>0.1485647075589749</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1686359549102427</v>
+        <v>0.1662950953700733</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6826621354341205</v>
+        <v>0.6896471487633762</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1948497494333051</v>
+        <v>0.190612211035094</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1819462239563234</v>
+        <v>0.1851448609388842</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.712792263124291</v>
+        <v>0.6983489340746206</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5739237936193466</v>
+        <v>0.5976838621528189</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5704983596103301</v>
+        <v>0.5618483024757563</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.08752355847127</v>
+        <v>1.140155675329226</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4177677203360209</v>
+        <v>0.4272838962688362</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4594319942251196</v>
+        <v>0.4510097571773416</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.020530813299524</v>
+        <v>1.032153387753029</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4288800113097782</v>
+        <v>0.4230480620380308</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4386623690650265</v>
+        <v>0.4366065164974151</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.008106377625079</v>
+        <v>0.9985057267311064</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.126303839666957</v>
+        <v>2.070107228931512</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.005881841965538</v>
+        <v>2.860432729444881</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8.382615759864345</v>
+        <v>8.205014791290335</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8.107946542267495</v>
+        <v>7.908418731355765</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>5.882405988674081</v>
+        <v>5.937357736000317</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>13.12289773126646</v>
+        <v>13.49529153520926</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>5.698933421279364</v>
+        <v>5.545356860180218</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>5.213021612561391</v>
+        <v>5.20154071789379</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>11.714000579255</v>
+        <v>11.49582518931712</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.868214004175854</v>
+        <v>6.801054362449524</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.718002175107698</v>
+        <v>7.622469993291705</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.40943277149914</v>
+        <v>13.2537061370114</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14.19566464836374</v>
+        <v>14.03944069150475</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>11.58707309983392</v>
+        <v>11.5770828710069</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>18.77631989747485</v>
+        <v>18.65369756656438</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>9.328591610925841</v>
+        <v>9.262416569322655</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>8.787353323258404</v>
+        <v>8.896547418029524</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>15.46487049962911</v>
+        <v>15.27265176970765</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.4623524040882619</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.8930069192733233</v>
+        <v>0.8930069192733237</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1509182645955753</v>
+        <v>0.1515623917476723</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2309842695892753</v>
+        <v>0.2226343287035538</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.6260662758095018</v>
+        <v>0.6257723385287751</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.4005133577687016</v>
+        <v>0.3912946036209863</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2904816670466104</v>
+        <v>0.301766062443058</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6624627007989103</v>
+        <v>0.6813494721150973</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3597730657864003</v>
+        <v>0.3458811394019486</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3239899649534855</v>
+        <v>0.3259422587696845</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.7170684434580047</v>
+        <v>0.7095557625298579</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.646084512649861</v>
+        <v>0.6424599612588737</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.7422247566612121</v>
+        <v>0.7116624963010443</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.245305210756754</v>
+        <v>1.222538003909042</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.83505890401553</v>
+        <v>0.8008789108353797</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6764835276119637</v>
+        <v>0.6714736406981731</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.110566568351439</v>
+        <v>1.113389438126209</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6554743315058303</v>
+        <v>0.650895813184956</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.619866366813428</v>
+        <v>0.6252864085590598</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.093937607773757</v>
+        <v>1.085538580470664</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>6.73314293439086</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8.282170768715073</v>
+        <v>8.282170768715064</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>7.683596690085056</v>
@@ -1092,7 +1092,7 @@
         <v>7.26182055886761</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>9.611378968695156</v>
+        <v>9.611378968695149</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.788384097843692</v>
+        <v>-4.963112909162849</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.651258194120189</v>
+        <v>2.096525006948371</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.27561386420826</v>
+        <v>4.366385656135003</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.914779098528965</v>
+        <v>2.502628760573057</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>2.02722218940165</v>
+        <v>2.006845134550541</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>5.603415190110604</v>
+        <v>5.347907396797911</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2034506968968849</v>
+        <v>-0.1974264511462475</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>3.79393012818602</v>
+        <v>3.811061659770753</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>6.450324032455057</v>
+        <v>6.72515797749728</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.205302055705373</v>
+        <v>3.37831358393545</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.36226395485493</v>
+        <v>10.9807107863715</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.4709853030296</v>
+        <v>13.05846411747647</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13.42831231330888</v>
+        <v>14.09067525462993</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>12.023664927901</v>
+        <v>12.3670806037474</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>14.9955238326998</v>
+        <v>14.83389262168834</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.261997478913665</v>
+        <v>7.114285501440637</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>10.88845538989381</v>
+        <v>10.75430458190435</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>13.0761322717294</v>
+        <v>13.02969100847341</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.5814921159206854</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.7152702759535695</v>
+        <v>0.7152702759535688</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.4015098149067267</v>
@@ -1197,7 +1197,7 @@
         <v>0.4814831453534078</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.6372667762190712</v>
+        <v>0.6372667762190709</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3502819156554533</v>
+        <v>-0.3580544207546862</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1914971393981176</v>
+        <v>0.1487952594588506</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.2888844045406166</v>
+        <v>0.3018941262211278</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.08374236883172105</v>
+        <v>0.1070197766866608</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.08823974322115366</v>
+        <v>0.09342136793579488</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2495072742443892</v>
+        <v>0.2402740179887518</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01277786513937974</v>
+        <v>-0.009539618375056836</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2294731316112985</v>
+        <v>0.2249413245253101</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.3673375292487127</v>
+        <v>0.3962029357130538</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.327298973095717</v>
+        <v>0.3600293356716913</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.186902546706394</v>
+        <v>1.138651309423752</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.299043617785358</v>
+        <v>1.29925473906675</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.7828199022528619</v>
+        <v>0.8491997467675968</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7366633270116751</v>
+        <v>0.7635603864886713</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.9205874609875496</v>
+        <v>0.9004501088254174</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5406040050360356</v>
+        <v>0.5211581898739418</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.8151169032077548</v>
+        <v>0.7952262565543493</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.9822526700709368</v>
+        <v>0.986466424726745</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>4.91613181705737</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9.888023087084481</v>
+        <v>9.888023087084482</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>9.590154747719051</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.207434719146652</v>
+        <v>2.33924538199247</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.20573754705995</v>
+        <v>3.03654850292919</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8.009516953778501</v>
+        <v>7.727684096026093</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7.431229868727709</v>
+        <v>7.648317092108591</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>5.124654480950206</v>
+        <v>5.163311098793331</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>12.99018162794606</v>
+        <v>13.02526988544587</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>5.463769367890262</v>
+        <v>5.439581400991655</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>4.691737958074425</v>
+        <v>4.637072010668188</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>11.1721853074732</v>
+        <v>11.18194460503996</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.907818205586737</v>
+        <v>5.856513005007454</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.971663107024825</v>
+        <v>6.657893873173728</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11.88131568136511</v>
+        <v>11.88080041455892</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.03010970529088</v>
+        <v>11.96587512788795</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>9.551392245362839</v>
+        <v>9.593080764488713</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>17.17888316516589</v>
+        <v>16.91646293591225</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>8.386158796805082</v>
+        <v>8.451142714416047</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>7.566897215394737</v>
+        <v>7.559869463519182</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>14.07658016164543</v>
+        <v>14.14890272545867</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.3532937424488605</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.7105945918162601</v>
+        <v>0.7105945918162602</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.4017647974794347</v>
@@ -1411,7 +1411,7 @@
         <v>0.3246164401691762</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.6651960957871571</v>
+        <v>0.6651960957871569</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1494491648193283</v>
+        <v>0.1559096994997582</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.2200097951418509</v>
+        <v>0.2027764335701968</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.5469350549089925</v>
+        <v>0.5200737336082684</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.2957552417072274</v>
+        <v>0.3031282687826131</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2053784649995918</v>
+        <v>0.2061392937328649</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5165220459597326</v>
+        <v>0.5176481223821839</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2794671931906808</v>
+        <v>0.2756477379048203</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2392523504376084</v>
+        <v>0.2349920150415339</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.5640184972829897</v>
+        <v>0.5609544323955268</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4565283455870653</v>
+        <v>0.4429791890327834</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.5437156388074146</v>
+        <v>0.5101084004737364</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.9168041767143847</v>
+        <v>0.905883633470239</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5321148687438423</v>
+        <v>0.5244116444240022</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4223259436660974</v>
+        <v>0.4236866504616926</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7618153663866004</v>
+        <v>0.7420970800026933</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4579268581362276</v>
+        <v>0.4626874437000109</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4163406244755805</v>
+        <v>0.4163582243861861</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.768624418563954</v>
+        <v>0.7764631806559722</v>
       </c>
     </row>
     <row r="28">
